--- a/00_D76_COT1_Agenda(2020-21).xlsx
+++ b/00_D76_COT1_Agenda(2020-21).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMCSpeeches\Division D COT\DivisionDCOT2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179374B-B6D0-4BF4-B858-47C4720319BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05322A-E144-41CC-865A-62359D3C0BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>Toastmaster International, District76</t>
   </si>
@@ -807,6 +807,32 @@
   </si>
   <si>
     <t>D76 Growth Strategy / D76成長戦略・重点施策</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Go back to basics of Toastmastes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">                                                    
+―What is Toastmasters Club Mission?
+―What do Core Values mean to you and your club?
+―How can you create a Qulaity Club?</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3386,8 +3412,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="92" zoomScalePageLayoutView="105" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="82" zoomScaleNormal="92" zoomScalePageLayoutView="105" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3719,7 +3745,7 @@
       <c r="C26" s="141"/>
       <c r="D26" s="43"/>
       <c r="E26" s="75" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73" t="s">
